--- a/Data_Dictionary/xlsx/Columns/Relatorio_SISGESAC_columns.xlsx
+++ b/Data_Dictionary/xlsx/Columns/Relatorio_SISGESAC_columns.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>columns</t>
   </si>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>notipologiabeneficiario</t>
+  </si>
+  <si>
+    <t>bancada</t>
+  </si>
+  <si>
+    <t>proponente</t>
+  </si>
+  <si>
+    <t>prop_pk1</t>
+  </si>
+  <si>
+    <t>prop_pk2</t>
   </si>
 </sst>
 </file>
@@ -554,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1040,6 +1052,38 @@
         <v>60</v>
       </c>
     </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data_Dictionary/xlsx/Columns/Relatorio_SISGESAC_columns.xlsx
+++ b/Data_Dictionary/xlsx/Columns/Relatorio_SISGESAC_columns.xlsx
@@ -199,16 +199,16 @@
     <t>notipologiabeneficiario</t>
   </si>
   <si>
+    <t>prop_pk1</t>
+  </si>
+  <si>
+    <t>prop_pk2</t>
+  </si>
+  <si>
     <t>bancada</t>
   </si>
   <si>
     <t>proponente</t>
-  </si>
-  <si>
-    <t>prop_pk1</t>
-  </si>
-  <si>
-    <t>prop_pk2</t>
   </si>
 </sst>
 </file>

--- a/Data_Dictionary/xlsx/Columns/Relatorio_SISGESAC_columns.xlsx
+++ b/Data_Dictionary/xlsx/Columns/Relatorio_SISGESAC_columns.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>columns</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>prop_pk2</t>
-  </si>
-  <si>
-    <t>bancada</t>
   </si>
   <si>
     <t>proponente</t>
@@ -566,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1076,14 +1073,6 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>64</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
